--- a/Monthly/Forecast/Stationaritiy/Percentage Return/fast_retailing.xlsx
+++ b/Monthly/Forecast/Stationaritiy/Percentage Return/fast_retailing.xlsx
@@ -417,13 +417,13 @@
         <v>106</v>
       </c>
       <c r="C2">
-        <v>-1.163714616738086</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-21.11400693932388</v>
+        <v>-20.20067753116368</v>
       </c>
       <c r="E2">
-        <v>18.78657770584771</v>
+        <v>20.20067753116368</v>
       </c>
       <c r="F2">
         <v>-15.97572432713985</v>
@@ -437,13 +437,13 @@
         <v>107</v>
       </c>
       <c r="C3">
-        <v>1.961118640461143</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-18.09170459716982</v>
+        <v>-20.33265619141248</v>
       </c>
       <c r="E3">
-        <v>22.0139418780921</v>
+        <v>20.33265619141248</v>
       </c>
       <c r="F3">
         <v>-3.396320998266056</v>
@@ -457,13 +457,13 @@
         <v>108</v>
       </c>
       <c r="C4">
-        <v>-1.575750852367603</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-21.5604846597724</v>
+        <v>-20.24843889187902</v>
       </c>
       <c r="E4">
-        <v>18.4089829550372</v>
+        <v>20.24843889187902</v>
       </c>
       <c r="F4">
         <v>1.271947323053269</v>
@@ -477,13 +477,13 @@
         <v>109</v>
       </c>
       <c r="C5">
-        <v>1.353657611248952</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-18.5461784526901</v>
+        <v>-20.1567565808755</v>
       </c>
       <c r="E5">
-        <v>21.253493675188</v>
+        <v>20.1567565808755</v>
       </c>
       <c r="F5">
         <v>-3.691489225782263</v>
@@ -497,13 +497,13 @@
         <v>110</v>
       </c>
       <c r="C6">
-        <v>-1.013300784683966</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-20.84448567330079</v>
+        <v>-20.07678146700918</v>
       </c>
       <c r="E6">
-        <v>18.81788410393286</v>
+        <v>20.07678146700918</v>
       </c>
       <c r="F6">
         <v>-1.624757040805669</v>
@@ -517,13 +517,13 @@
         <v>111</v>
       </c>
       <c r="C7">
-        <v>1.003849642637912</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-18.73815421659078</v>
+        <v>-19.98842641255801</v>
       </c>
       <c r="E7">
-        <v>20.74585350186661</v>
+        <v>19.98842641255801</v>
       </c>
       <c r="F7">
         <v>-2.5536007313395</v>
@@ -537,13 +537,13 @@
         <v>112</v>
       </c>
       <c r="C8">
-        <v>-0.7519593629301462</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-20.41643091068054</v>
+        <v>-19.90461153043642</v>
       </c>
       <c r="E8">
-        <v>18.91251218482025</v>
+        <v>19.90461153043642</v>
       </c>
       <c r="F8">
         <v>1.488043311970344</v>
@@ -557,13 +557,13 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>0.5779335807563468</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-19.00356219445087</v>
+        <v>-19.81824159498779</v>
       </c>
       <c r="E9">
-        <v>20.15942935596357</v>
+        <v>19.81824159498779</v>
       </c>
       <c r="F9">
         <v>10.22067112351905</v>
@@ -577,13 +577,13 @@
         <v>114</v>
       </c>
       <c r="C10">
-        <v>-1.099413729019235</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-20.67424486086717</v>
+        <v>-19.82013126073842</v>
       </c>
       <c r="E10">
-        <v>18.4754174028287</v>
+        <v>19.82013126073842</v>
       </c>
       <c r="F10">
         <v>15.92457532444893</v>
@@ -597,13 +597,13 @@
         <v>115</v>
       </c>
       <c r="C11">
-        <v>0.1300596967752519</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-19.60388939240528</v>
+        <v>-19.94725352622095</v>
       </c>
       <c r="E11">
-        <v>19.86400878595579</v>
+        <v>19.94725352622095</v>
       </c>
       <c r="F11">
         <v>0.9205165621647637</v>
@@ -617,13 +617,13 @@
         <v>116</v>
       </c>
       <c r="C12">
-        <v>-0.1749359423869983</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-19.8241668923498</v>
+        <v>-19.86179432355315</v>
       </c>
       <c r="E12">
-        <v>19.47429500757581</v>
+        <v>19.86179432355315</v>
       </c>
       <c r="F12">
         <v>-5.654676630460642</v>
@@ -637,13 +637,13 @@
         <v>117</v>
       </c>
       <c r="C13">
-        <v>0.4756907415656721</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-19.114284668574</v>
+        <v>-19.80325837129098</v>
       </c>
       <c r="E13">
-        <v>20.06566615170534</v>
+        <v>19.80325837129098</v>
       </c>
       <c r="F13">
         <v>8.450783242318671</v>
@@ -657,13 +657,13 @@
         <v>118</v>
       </c>
       <c r="C14">
-        <v>-0.8479222193943601</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-20.40748202658429</v>
+        <v>-19.77803280325909</v>
       </c>
       <c r="E14">
-        <v>18.71163758779557</v>
+        <v>19.77803280325909</v>
       </c>
       <c r="F14">
         <v>-0.3256349662056124</v>
@@ -677,13 +677,13 @@
         <v>119</v>
       </c>
       <c r="C15">
-        <v>0.7884550233850096</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-18.6889599289552</v>
+        <v>-19.69484341097717</v>
       </c>
       <c r="E15">
-        <v>20.26586997572522</v>
+        <v>19.69484341097717</v>
       </c>
       <c r="F15">
         <v>-4.005220093211825</v>
@@ -697,13 +697,13 @@
         <v>120</v>
       </c>
       <c r="C16">
-        <v>-0.5292432349455494</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-19.94407943378134</v>
+        <v>-19.625697888595</v>
       </c>
       <c r="E16">
-        <v>18.88559296389024</v>
+        <v>19.625697888595</v>
       </c>
       <c r="F16">
         <v>-1.955372065548744</v>
@@ -717,13 +717,13 @@
         <v>121</v>
       </c>
       <c r="C17">
-        <v>0.5745463410864935</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-18.76158823824984</v>
+        <v>-19.54753697028605</v>
       </c>
       <c r="E17">
-        <v>19.91068092042283</v>
+        <v>19.54753697028605</v>
       </c>
       <c r="F17">
         <v>2.294291614220789</v>
@@ -737,13 +737,13 @@
         <v>122</v>
       </c>
       <c r="C18">
-        <v>-0.631955819312112</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-19.89112990019143</v>
+        <v>-19.47151591520662</v>
       </c>
       <c r="E18">
-        <v>18.62721826156721</v>
+        <v>19.47151591520662</v>
       </c>
       <c r="F18">
         <v>10.90566839229528</v>
@@ -757,13 +757,13 @@
         <v>123</v>
       </c>
       <c r="C19">
-        <v>0.05820686491141736</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-19.2298742440961</v>
+        <v>-19.48774203800781</v>
       </c>
       <c r="E19">
-        <v>19.34628797391893</v>
+        <v>19.48774203800781</v>
       </c>
       <c r="F19">
         <v>7.888813042536391</v>
@@ -777,13 +777,13 @@
         <v>124</v>
       </c>
       <c r="C20">
-        <v>-0.434914294056524</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-19.69411624896172</v>
+        <v>-19.45860841858515</v>
       </c>
       <c r="E20">
-        <v>18.82428766084867</v>
+        <v>19.45860841858515</v>
       </c>
       <c r="F20">
         <v>1.943605837711893</v>
@@ -797,13 +797,13 @@
         <v>125</v>
       </c>
       <c r="C21">
-        <v>0.309719085323471</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-18.87677130055485</v>
+        <v>-19.38361262491227</v>
       </c>
       <c r="E21">
-        <v>19.49620947120179</v>
+        <v>19.38361262491227</v>
       </c>
       <c r="F21">
         <v>11.96484230954944</v>
@@ -817,13 +817,13 @@
         <v>126</v>
       </c>
       <c r="C22">
-        <v>-0.8087192106165837</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-20.02670779630188</v>
+        <v>-19.41924844162572</v>
       </c>
       <c r="E22">
-        <v>18.40926937506871</v>
+        <v>19.41924844162572</v>
       </c>
       <c r="F22">
         <v>-2.636791048315601</v>
@@ -837,13 +837,13 @@
         <v>127</v>
       </c>
       <c r="C23">
-        <v>0.8569196038852696</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-18.2879451640688</v>
+        <v>-19.34807928175228</v>
       </c>
       <c r="E23">
-        <v>20.00178437183934</v>
+        <v>19.34807928175228</v>
       </c>
       <c r="F23">
         <v>-7.511470880577953</v>
@@ -857,13 +857,13 @@
         <v>128</v>
       </c>
       <c r="C24">
-        <v>-0.4667433573780331</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-19.59129010846783</v>
+        <v>-19.31623534545968</v>
       </c>
       <c r="E24">
-        <v>18.65780339371176</v>
+        <v>19.31623534545968</v>
       </c>
       <c r="F24">
         <v>-2.614130620489341</v>
@@ -877,13 +877,13 @@
         <v>129</v>
       </c>
       <c r="C25">
-        <v>0.5404351465360786</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-18.51348018692638</v>
+        <v>-19.24650810869656</v>
       </c>
       <c r="E25">
-        <v>19.59435047999854</v>
+        <v>19.24650810869656</v>
       </c>
       <c r="F25">
         <v>4.044003060504053</v>
@@ -897,13 +897,13 @@
         <v>130</v>
       </c>
       <c r="C26">
-        <v>-0.6672359714625107</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-19.65732554960544</v>
+        <v>-19.18493939975752</v>
       </c>
       <c r="E26">
-        <v>18.32285360668041</v>
+        <v>19.18493939975752</v>
       </c>
       <c r="F26">
         <v>9.28603528935934</v>
